--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>Ресурсы:</t>
   </si>
@@ -254,13 +254,19 @@
   </si>
   <si>
     <t>1 солдату 12 золотых</t>
+  </si>
+  <si>
+    <t>земля, народ, зерно</t>
+  </si>
+  <si>
+    <t>военные расходы 200 зол/мес</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,10 +422,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,7 +456,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -627,29 +631,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-    <col min="12" max="12" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="31.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
+    <col min="9" max="9" width="26.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" customWidth="1"/>
+    <col min="12" max="12" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -666,7 +670,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -681,7 +685,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -698,7 +702,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -715,7 +719,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -732,7 +736,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -746,7 +750,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -760,7 +764,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -771,8 +775,11 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -780,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -788,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -796,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -805,7 +812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -814,7 +821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -850,7 +857,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -876,7 +883,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="B26" t="s">
         <v>33</v>
       </c>
@@ -908,7 +915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="B27" t="s">
         <v>34</v>
       </c>
@@ -934,7 +941,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="B28" t="s">
         <v>35</v>
       </c>
@@ -960,7 +967,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="B29" t="s">
         <v>37</v>
       </c>
@@ -983,12 +990,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="B30" t="s">
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
         <v>63</v>
@@ -1009,7 +1016,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="B31" t="s">
         <v>74</v>
       </c>
@@ -1038,7 +1045,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="B32" t="s">
         <v>77</v>
       </c>
@@ -1061,7 +1068,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:11">
       <c r="G33" t="s">
         <v>43</v>
       </c>
@@ -1075,7 +1082,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:11">
       <c r="G34" t="s">
         <v>64</v>
       </c>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
   <si>
     <t>Ресурсы:</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>военные расходы 200 зол/мес</t>
+  </si>
+  <si>
+    <t>2 раза в год</t>
   </si>
 </sst>
 </file>
@@ -634,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -926,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
         <v>21</v>
